--- a/SP_Sklad/TempLate/PriceList2.xlsx
+++ b/SP_Sklad/TempLate/PriceList2.xlsx
@@ -339,21 +339,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -375,41 +368,38 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -787,15 +777,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:G92"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" style="1" customWidth="1"/>
@@ -806,205 +794,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="e">
+      <c r="B1" s="20" t="e">
         <f>"Прайс лист "&amp;PriceList_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="e">
+      <c r="C3" s="13" t="e">
         <f>PriceList_ONDATE</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="e">
+      <c r="B6" s="14" t="e">
         <f>PriceListDet_BarCode</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="26" t="e">
+      <c r="C6" s="14" t="e">
         <f>PriceListDet_GRPNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="27" t="e">
+      <c r="D6" s="15" t="e">
         <f>PriceListDet_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="28" t="e">
+      <c r="E6" s="16" t="e">
         <f>PriceListDet_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="29" t="e">
+      <c r="F6" s="25" t="e">
         <f>PriceListDet_BarCode_Price</f>
         <v>#NAME?</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/SP_Sklad/TempLate/PriceList2.xlsx
+++ b/SP_Sklad/TempLate/PriceList2.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Разом по катогорії :</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Назва товару</t>
   </si>
@@ -38,9 +35,6 @@
   </si>
   <si>
     <t>Категорія</t>
-  </si>
-  <si>
-    <t>sum</t>
   </si>
   <si>
     <t>Дата</t>
@@ -377,35 +371,35 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,26 +788,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="e">
+      <c r="B1" s="26" t="e">
         <f>"Прайс лист "&amp;PriceList_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="13" t="e">
         <f>PriceList_ONDATE</f>
@@ -821,30 +815,30 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="e">
@@ -863,21 +857,17 @@
         <f>PriceListDet_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="25" t="e">
+      <c r="F6" s="23" t="e">
         <f>PriceListDet_BarCode_Price</f>
         <v>#NAME?</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
@@ -890,14 +880,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="F4:G5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
